--- a/analysis/pre_gemini_data/participant280/easy.xlsx
+++ b/analysis/pre_gemini_data/participant280/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,107 +422,103 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>asssignment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>coce</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condstae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
@@ -575,11 +559,9 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -589,19 +571,19 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
@@ -622,11 +604,9 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1</v>
       </c>
@@ -636,19 +616,19 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
@@ -669,11 +649,9 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>22022.99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>150.52</v>
-      </c>
+        <v>19487.37</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>617.36</v>
       </c>
@@ -683,19 +661,19 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3295.57</v>
+        <v>2894.86</v>
       </c>
       <c r="J5" t="n">
         <v>867.48</v>
       </c>
       <c r="K5" t="n">
-        <v>6790.83</v>
+        <v>6473.78</v>
       </c>
       <c r="L5" t="n">
-        <v>3912.08</v>
+        <v>3194.99</v>
       </c>
       <c r="M5" t="n">
-        <v>82888.96000000001</v>
+        <v>44873.12</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
@@ -716,13 +694,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
+        <v>19.53</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.26</v>
+        <v>0.62</v>
       </c>
       <c r="F6" t="n">
         <v>41.99</v>
@@ -730,23 +706,23 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>0.37</v>
+        <v>0.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.89</v>
+        <v>6.49</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>35.27</v>
+        <v>44.96</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -763,11 +739,9 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>512.16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>150.52</v>
-      </c>
+        <v>573.16</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>617.36</v>
       </c>
@@ -777,19 +751,19 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>659.11</v>
+        <v>964.95</v>
       </c>
       <c r="J7" t="n">
         <v>433.74</v>
       </c>
       <c r="K7" t="n">
-        <v>522.37</v>
+        <v>539.48</v>
       </c>
       <c r="L7" t="n">
-        <v>558.87</v>
+        <v>798.75</v>
       </c>
       <c r="M7" t="n">
-        <v>548.9299999999999</v>
+        <v>606.39</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
@@ -812,9 +786,7 @@
       <c r="C8" t="n">
         <v>458.81</v>
       </c>
-      <c r="D8" t="n">
-        <v>150.52</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>617.36</v>
       </c>
@@ -872,52 +844,6 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
